--- a/Class Definition Document.xlsx
+++ b/Class Definition Document.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="pDiLyfmnyXUIh9d4ZI6xuA8cmK/qe1WQ63C3HR0z6lw="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="RQmFPcPwZx0+byKZ8RfETIGZf82KsP9CHtRsqQvjVSw="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="295">
   <si>
     <t>Classes</t>
   </si>
@@ -586,9 +586,6 @@
     <t>def onToolBarRunButtonClick(self):</t>
   </si>
   <si>
-    <t>def onToolbarSave(self):</t>
-  </si>
-  <si>
     <t>when the run button is clicked, the system will run the file and output will be made to screen</t>
   </si>
   <si>
@@ -613,7 +610,7 @@
     <t>def onToolBarSave(self)</t>
   </si>
   <si>
-    <t>Overrite current file in directory and only save 100 lines of the text file to keep working conditions of the VM clean</t>
+    <t>Overrite current file in directory and only save 250 lines of the text file to keep working conditions of the VM clean</t>
   </si>
   <si>
     <t>file changes are visible on screen but have not been saved to file yet</t>
@@ -658,6 +655,36 @@
     <t>waiting for user input with focus set on input box. Event loop is executed.</t>
   </si>
   <si>
+    <t>def updateConsoleDiplay</t>
+  </si>
+  <si>
+    <t>Update the console section of GUI</t>
+  </si>
+  <si>
+    <t>Console section of gui is not updated</t>
+  </si>
+  <si>
+    <t>Console section is updated with new information</t>
+  </si>
+  <si>
+    <t>def convertCode(self)</t>
+  </si>
+  <si>
+    <t>Take the edited memory and update it in memory</t>
+  </si>
+  <si>
+    <t>Updated memory is in the GUI but not in the memory</t>
+  </si>
+  <si>
+    <t>Code is updated in the memory</t>
+  </si>
+  <si>
+    <t>def onToolBarSaveAs(self)</t>
+  </si>
+  <si>
+    <t>Create new file in directory and only save 250 lines of the text file to keep working conditions of the VM clean</t>
+  </si>
+  <si>
     <t>def update_displays(self)</t>
   </si>
   <si>
@@ -827,6 +854,54 @@
   </si>
   <si>
     <t>loader has loaded some words</t>
+  </si>
+  <si>
+    <t>Converter</t>
+  </si>
+  <si>
+    <t>Purpose of the Class:</t>
+  </si>
+  <si>
+    <t>Convert file from 4 letter words to 6 letter words</t>
+  </si>
+  <si>
+    <t>[''] * self.mem_limit</t>
+  </si>
+  <si>
+    <t>self.mem_limit</t>
+  </si>
+  <si>
+    <t>self.memory.mem_limit</t>
+  </si>
+  <si>
+    <t>Memory.Memory()</t>
+  </si>
+  <si>
+    <t>set up thje converter class</t>
+  </si>
+  <si>
+    <t>Converter is not set up</t>
+  </si>
+  <si>
+    <t>Converter has been initailized with starting variables</t>
+  </si>
+  <si>
+    <t>convert(self, old_mem)</t>
+  </si>
+  <si>
+    <t>convert the old memory to the new format</t>
+  </si>
+  <si>
+    <t>old memory</t>
+  </si>
+  <si>
+    <t>new memory</t>
+  </si>
+  <si>
+    <t>Old memory is in the memory class</t>
+  </si>
+  <si>
+    <t>New converted memory is in the memory class</t>
   </si>
 </sst>
 </file>
@@ -850,18 +925,17 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -880,6 +954,12 @@
         <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -887,7 +967,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -897,19 +977,36 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
@@ -919,22 +1016,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1155,7 +1236,6 @@
     <col customWidth="1" min="1" max="1" width="16.38"/>
     <col customWidth="1" min="2" max="2" width="22.25"/>
     <col customWidth="1" min="3" max="3" width="23.25"/>
-    <col customWidth="1" min="4" max="5" width="12.63"/>
     <col customWidth="1" min="6" max="7" width="14.75"/>
   </cols>
   <sheetData>
@@ -1194,7 +1274,7 @@
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1223,58 +1303,58 @@
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="3" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1307,7 +1387,7 @@
       </c>
     </row>
     <row r="21" ht="67.5" customHeight="1">
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -1316,10 +1396,10 @@
       <c r="E21" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1346,7 +1426,7 @@
       </c>
     </row>
     <row r="24" ht="166.5" customHeight="1">
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D24" s="3" t="s">
@@ -1358,12 +1438,12 @@
       <c r="F24" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="3" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1403,7 +1483,7 @@
     </row>
     <row r="28" ht="20.25" customHeight="1">
       <c r="A28" s="2"/>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1442,50 +1522,50 @@
       <c r="G30" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="8"/>
-      <c r="V30" s="8"/>
-      <c r="W30" s="8"/>
-      <c r="X30" s="8"/>
-      <c r="Y30" s="8"/>
-      <c r="Z30" s="8"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
     </row>
     <row r="31" ht="20.25" customHeight="1">
       <c r="A31" s="2"/>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="8"/>
-      <c r="S31" s="8"/>
-      <c r="T31" s="8"/>
-      <c r="U31" s="8"/>
-      <c r="V31" s="8"/>
-      <c r="W31" s="8"/>
-      <c r="X31" s="8"/>
-      <c r="Y31" s="8"/>
-      <c r="Z31" s="8"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
     </row>
     <row r="32" ht="20.25" customHeight="1">
       <c r="A32" s="2"/>
@@ -1504,32 +1584,32 @@
       <c r="G32" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="8"/>
-      <c r="S32" s="8"/>
-      <c r="T32" s="8"/>
-      <c r="U32" s="8"/>
-      <c r="V32" s="8"/>
-      <c r="W32" s="8"/>
-      <c r="X32" s="8"/>
-      <c r="Y32" s="8"/>
-      <c r="Z32" s="8"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
     </row>
     <row r="33" ht="27.75" customHeight="1">
       <c r="A33" s="2"/>
       <c r="C33" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E33" s="3" t="s">
@@ -1541,50 +1621,50 @@
       <c r="G33" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="8"/>
-      <c r="T33" s="8"/>
-      <c r="U33" s="8"/>
-      <c r="V33" s="8"/>
-      <c r="W33" s="8"/>
-      <c r="X33" s="8"/>
-      <c r="Y33" s="8"/>
-      <c r="Z33" s="8"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
     </row>
     <row r="34" ht="20.25" customHeight="1">
       <c r="A34" s="2"/>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="8"/>
-      <c r="S34" s="8"/>
-      <c r="T34" s="8"/>
-      <c r="U34" s="8"/>
-      <c r="V34" s="8"/>
-      <c r="W34" s="8"/>
-      <c r="X34" s="8"/>
-      <c r="Y34" s="8"/>
-      <c r="Z34" s="8"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
     </row>
     <row r="35" ht="20.25" customHeight="1">
       <c r="A35" s="2"/>
@@ -1603,25 +1683,25 @@
       <c r="G35" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
-      <c r="R35" s="8"/>
-      <c r="S35" s="8"/>
-      <c r="T35" s="8"/>
-      <c r="U35" s="8"/>
-      <c r="V35" s="8"/>
-      <c r="W35" s="8"/>
-      <c r="X35" s="8"/>
-      <c r="Y35" s="8"/>
-      <c r="Z35" s="8"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="5"/>
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="5"/>
     </row>
     <row r="36" ht="51.0" customHeight="1">
       <c r="A36" s="2"/>
@@ -1640,128 +1720,128 @@
       <c r="G36" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
-      <c r="R36" s="8"/>
-      <c r="S36" s="8"/>
-      <c r="T36" s="8"/>
-      <c r="U36" s="8"/>
-      <c r="V36" s="8"/>
-      <c r="W36" s="8"/>
-      <c r="X36" s="8"/>
-      <c r="Y36" s="8"/>
-      <c r="Z36" s="8"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="5"/>
     </row>
     <row r="37" ht="20.25" customHeight="1">
       <c r="A37" s="2"/>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8"/>
-      <c r="R37" s="8"/>
-      <c r="S37" s="8"/>
-      <c r="T37" s="8"/>
-      <c r="U37" s="8"/>
-      <c r="V37" s="8"/>
-      <c r="W37" s="8"/>
-      <c r="X37" s="8"/>
-      <c r="Y37" s="8"/>
-      <c r="Z37" s="8"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="5"/>
     </row>
     <row r="38" ht="20.25" customHeight="1">
       <c r="A38" s="2"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="10" t="s">
+      <c r="B38" s="5"/>
+      <c r="C38" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E38" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F38" s="10" t="s">
+      <c r="F38" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G38" s="10" t="s">
+      <c r="G38" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="8"/>
-      <c r="S38" s="8"/>
-      <c r="T38" s="8"/>
-      <c r="U38" s="8"/>
-      <c r="V38" s="8"/>
-      <c r="W38" s="8"/>
-      <c r="X38" s="8"/>
-      <c r="Y38" s="8"/>
-      <c r="Z38" s="8"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
     </row>
     <row r="39" ht="49.5" customHeight="1">
       <c r="A39" s="2"/>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E39" s="10" t="s">
+      <c r="E39" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F39" s="11" t="s">
+      <c r="F39" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="G39" s="11" t="s">
+      <c r="G39" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="8"/>
-      <c r="R39" s="8"/>
-      <c r="S39" s="8"/>
-      <c r="T39" s="8"/>
-      <c r="U39" s="8"/>
-      <c r="V39" s="8"/>
-      <c r="W39" s="8"/>
-      <c r="X39" s="8"/>
-      <c r="Y39" s="8"/>
-      <c r="Z39" s="8"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="5"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="12"/>
+      <c r="A40" s="7"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="2" t="s">
@@ -1772,7 +1852,7 @@
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="4" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1802,122 +1882,122 @@
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="B52" s="7"/>
-      <c r="C52" s="7" t="s">
+      <c r="B52" s="4"/>
+      <c r="C52" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E52" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="F52" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G52" s="7" t="s">
+      <c r="G52" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="4" t="s">
         <v>70</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="F53" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G53" s="7" t="s">
+      <c r="G53" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="B55" s="7"/>
-      <c r="C55" s="7" t="s">
+      <c r="B55" s="4"/>
+      <c r="C55" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D55" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E55" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="F55" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G55" s="7" t="s">
+      <c r="G55" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="E56" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="F56" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G56" s="7" t="s">
+      <c r="G56" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="B58" s="7"/>
-      <c r="C58" s="7" t="s">
+      <c r="B58" s="4"/>
+      <c r="C58" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D58" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="E58" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F58" s="7" t="s">
+      <c r="F58" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G58" s="7" t="s">
+      <c r="G58" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="4" t="s">
         <v>78</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="E59" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F59" s="7" t="s">
+      <c r="F59" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G59" s="7" t="s">
+      <c r="G59" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="12"/>
+      <c r="A60" s="7"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="2" t="s">
@@ -1928,7 +2008,7 @@
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="4" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1958,114 +2038,114 @@
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="B72" s="7"/>
-      <c r="C72" s="7" t="s">
+      <c r="B72" s="4"/>
+      <c r="C72" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D72" s="7" t="s">
+      <c r="D72" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="E72" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F72" s="7" t="s">
+      <c r="F72" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G72" s="7" t="s">
+      <c r="G72" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="E73" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F73" s="7" t="s">
+      <c r="F73" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G73" s="7" t="s">
+      <c r="G73" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="4" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="B75" s="7"/>
-      <c r="C75" s="7" t="s">
+      <c r="B75" s="4"/>
+      <c r="C75" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D75" s="7" t="s">
+      <c r="D75" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E75" s="7" t="s">
+      <c r="E75" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F75" s="7" t="s">
+      <c r="F75" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G75" s="7" t="s">
+      <c r="G75" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="C76" s="7" t="s">
+      <c r="C76" s="4" t="s">
         <v>84</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E76" s="7" t="s">
+      <c r="E76" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F76" s="7" t="s">
+      <c r="F76" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G76" s="7" t="s">
+      <c r="G76" s="4" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="B78" s="7"/>
-      <c r="C78" s="7" t="s">
+      <c r="B78" s="4"/>
+      <c r="C78" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D78" s="7" t="s">
+      <c r="D78" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E78" s="7" t="s">
+      <c r="E78" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F78" s="7" t="s">
+      <c r="F78" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G78" s="7" t="s">
+      <c r="G78" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="C79" s="7" t="s">
+      <c r="C79" s="4" t="s">
         <v>89</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E79" s="7" t="s">
+      <c r="E79" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F79" s="7" t="s">
+      <c r="F79" s="4" t="s">
         <v>86</v>
       </c>
       <c r="G79" s="4" t="s">
@@ -2073,13 +2153,13 @@
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="13"/>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c r="G80" s="14"/>
+      <c r="A80" s="8"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="2" t="s">
@@ -2090,7 +2170,7 @@
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="B82" s="7" t="s">
+      <c r="B82" s="4" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2115,45 +2195,45 @@
       </c>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="B91" s="10" t="s">
+      <c r="B91" s="5" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="B92" s="10"/>
-      <c r="C92" s="10" t="s">
+      <c r="B92" s="5"/>
+      <c r="C92" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D92" s="10" t="s">
+      <c r="D92" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E92" s="10" t="s">
+      <c r="E92" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F92" s="10" t="s">
+      <c r="F92" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G92" s="10" t="s">
+      <c r="G92" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="C93" s="15" t="s">
+      <c r="C93" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D93" s="11" t="s">
+      <c r="D93" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E93" s="15" t="s">
+      <c r="E93" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F93" s="15" t="s">
+      <c r="F93" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="G93" s="15" t="s">
+      <c r="G93" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="H93" s="6" t="s">
+      <c r="H93" s="3" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2163,1460 +2243,1700 @@
       </c>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="B95" s="7"/>
-      <c r="C95" s="7" t="s">
+      <c r="B95" s="4"/>
+      <c r="C95" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D95" s="7" t="s">
+      <c r="D95" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E95" s="7" t="s">
+      <c r="E95" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F95" s="7" t="s">
+      <c r="F95" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G95" s="7" t="s">
+      <c r="G95" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="C96" s="7" t="s">
+      <c r="C96" s="4" t="s">
         <v>97</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E96" s="7" t="s">
+      <c r="E96" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F96" s="7" t="s">
+      <c r="F96" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="G96" s="7" t="s">
+      <c r="G96" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="B97" s="7" t="s">
+      <c r="B97" s="4" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="B98" s="7"/>
-      <c r="C98" s="7" t="s">
+      <c r="B98" s="4"/>
+      <c r="C98" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D98" s="7" t="s">
+      <c r="D98" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E98" s="7" t="s">
+      <c r="E98" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F98" s="7" t="s">
+      <c r="F98" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G98" s="7" t="s">
+      <c r="G98" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="C99" s="7" t="s">
+      <c r="C99" s="4" t="s">
         <v>103</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E99" s="7" t="s">
+      <c r="E99" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F99" s="7" t="s">
+      <c r="F99" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="G99" s="7" t="s">
+      <c r="G99" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="B100" s="7" t="s">
+      <c r="B100" s="4" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="B101" s="7"/>
-      <c r="C101" s="7" t="s">
+      <c r="B101" s="4"/>
+      <c r="C101" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D101" s="7" t="s">
+      <c r="D101" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E101" s="7" t="s">
+      <c r="E101" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F101" s="7" t="s">
+      <c r="F101" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G101" s="7" t="s">
+      <c r="G101" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="C102" s="7" t="s">
+      <c r="C102" s="4" t="s">
         <v>107</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E102" s="7" t="s">
+      <c r="E102" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="F102" s="7" t="s">
+      <c r="F102" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="G102" s="7" t="s">
+      <c r="G102" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="B103" s="7" t="s">
+      <c r="B103" s="4" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="B104" s="7"/>
-      <c r="C104" s="7" t="s">
+      <c r="B104" s="4"/>
+      <c r="C104" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D104" s="7" t="s">
+      <c r="D104" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E104" s="7" t="s">
+      <c r="E104" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F104" s="7" t="s">
+      <c r="F104" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G104" s="7" t="s">
+      <c r="G104" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="C105" s="7" t="s">
+      <c r="C105" s="4" t="s">
         <v>112</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E105" s="7" t="s">
+      <c r="E105" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="F105" s="7" t="s">
+      <c r="F105" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="G105" s="7" t="s">
+      <c r="G105" s="4" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="2" t="s">
+      <c r="A106" s="8"/>
+    </row>
+    <row r="107" ht="15.75" customHeight="1">
+      <c r="A107" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B107" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
-      <c r="B107" s="7" t="s">
+    <row r="108" ht="15.75" customHeight="1">
+      <c r="B108" s="4" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="108" ht="15.75" customHeight="1">
-      <c r="B108" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="B109" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" ht="15.75" customHeight="1">
+      <c r="B110" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1">
-      <c r="B111" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
+    <row r="111" ht="15.75" customHeight="1"/>
     <row r="112" ht="15.75" customHeight="1">
       <c r="B112" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="113" ht="15.75" customHeight="1">
+      <c r="B113" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
-      <c r="B113" s="7"/>
-      <c r="C113" s="7" t="s">
+    <row r="114" ht="15.75" customHeight="1">
+      <c r="B114" s="4"/>
+      <c r="C114" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D113" s="7" t="s">
+      <c r="D114" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E113" s="7" t="s">
+      <c r="E114" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F113" s="7" t="s">
+      <c r="F114" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G113" s="7" t="s">
+      <c r="G114" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
-      <c r="C114" s="7" t="s">
+    <row r="115" ht="15.75" customHeight="1">
+      <c r="C115" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D114" s="4" t="s">
+      <c r="D115" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E114" s="7" t="s">
+      <c r="E115" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F114" s="7" t="s">
+      <c r="F115" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G114" s="7" t="s">
+      <c r="G115" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
-      <c r="B115" s="7" t="s">
+    <row r="116" ht="15.75" customHeight="1">
+      <c r="B116" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
-      <c r="B116" s="7"/>
-      <c r="C116" s="7" t="s">
+    <row r="117" ht="15.75" customHeight="1">
+      <c r="B117" s="4"/>
+      <c r="C117" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D116" s="7" t="s">
+      <c r="D117" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E116" s="7" t="s">
+      <c r="E117" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F116" s="7" t="s">
+      <c r="F117" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G116" s="7" t="s">
+      <c r="G117" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
-      <c r="C117" s="7" t="s">
+    <row r="118" ht="15.75" customHeight="1">
+      <c r="C118" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D117" s="4" t="s">
+      <c r="D118" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E117" s="7" t="s">
+      <c r="E118" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F117" s="7" t="s">
+      <c r="F118" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="G117" s="7" t="s">
+      <c r="G118" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
-      <c r="B118" s="7" t="s">
+    <row r="119" ht="15.75" customHeight="1">
+      <c r="B119" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
-      <c r="B119" s="7"/>
-      <c r="C119" s="7" t="s">
+    <row r="120" ht="15.75" customHeight="1">
+      <c r="B120" s="4"/>
+      <c r="C120" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D119" s="7" t="s">
+      <c r="D120" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E119" s="7" t="s">
+      <c r="E120" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F119" s="7" t="s">
+      <c r="F120" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G119" s="7" t="s">
+      <c r="G120" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
-      <c r="C120" s="7" t="s">
+    <row r="121" ht="15.75" customHeight="1">
+      <c r="C121" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D120" s="4" t="s">
+      <c r="D121" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E120" s="7" t="s">
+      <c r="E121" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F120" s="7" t="s">
+      <c r="F121" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="G120" s="7" t="s">
+      <c r="G121" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
-      <c r="B121" s="7" t="s">
+    <row r="122" ht="15.75" customHeight="1">
+      <c r="B122" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
-      <c r="B122" s="7"/>
-      <c r="C122" s="7" t="s">
+    <row r="123" ht="15.75" customHeight="1">
+      <c r="B123" s="4"/>
+      <c r="C123" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D122" s="7" t="s">
+      <c r="D123" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E122" s="7" t="s">
+      <c r="E123" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F122" s="7" t="s">
+      <c r="F123" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G122" s="7" t="s">
+      <c r="G123" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
-      <c r="C123" s="7" t="s">
+    <row r="124" ht="15.75" customHeight="1">
+      <c r="C124" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D123" s="4" t="s">
+      <c r="D124" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E123" s="7" t="s">
+      <c r="E124" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F123" s="7" t="s">
+      <c r="F124" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="G123" s="7" t="s">
+      <c r="G124" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
-      <c r="B124" s="7" t="s">
+    <row r="125" ht="15.75" customHeight="1">
+      <c r="B125" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
-      <c r="B125" s="7"/>
-      <c r="C125" s="7" t="s">
+    <row r="126" ht="15.75" customHeight="1">
+      <c r="B126" s="4"/>
+      <c r="C126" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D125" s="7" t="s">
+      <c r="D126" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E125" s="7" t="s">
+      <c r="E126" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F125" s="7" t="s">
+      <c r="F126" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G125" s="7" t="s">
+      <c r="G126" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
-      <c r="C126" s="7" t="s">
+    <row r="127" ht="15.75" customHeight="1">
+      <c r="C127" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D126" s="4" t="s">
+      <c r="D127" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E126" s="7" t="s">
+      <c r="E127" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F126" s="7" t="s">
+      <c r="F127" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="G126" s="7" t="s">
+      <c r="G127" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="2" t="s">
+    <row r="128" ht="15.75" customHeight="1">
+      <c r="A128" s="8"/>
+    </row>
+    <row r="129" ht="15.75" customHeight="1">
+      <c r="A129" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B129" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
-      <c r="B128" s="7" t="s">
+    <row r="130" ht="15.75" customHeight="1">
+      <c r="B130" s="4" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="129" ht="15.75" customHeight="1">
-      <c r="B129" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="130" ht="15.75" customHeight="1">
-      <c r="B130" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="B131" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>136</v>
+        <v>4</v>
       </c>
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="B132" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="B133" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="B134" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="B135" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="B136" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="B137" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="B138" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="B139" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="B140" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="B141" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="142" ht="15.75" customHeight="1">
+      <c r="B142" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="143" ht="15.75" customHeight="1">
+      <c r="B143" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C141" s="3" t="s">
+      <c r="C143" s="3" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="142" ht="15.75" customHeight="1">
-      <c r="B142" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C142" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="143" ht="15.75" customHeight="1">
-      <c r="B143" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="C143" s="6" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="B144" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="B145" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="B146" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="B147" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="148" ht="15.75" customHeight="1">
+      <c r="B148" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="149" ht="15.75" customHeight="1">
+      <c r="B149" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="C149" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
-      <c r="B148" s="6" t="s">
+    <row r="150" ht="15.75" customHeight="1">
+      <c r="B150" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C148" s="6" t="s">
+      <c r="C150" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
-      <c r="B149" s="6" t="s">
+    <row r="151" ht="15.75" customHeight="1">
+      <c r="B151" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C149" s="6" t="s">
+      <c r="C151" s="3" t="s">
         <v>172</v>
-      </c>
-    </row>
-    <row r="150" ht="15.75" customHeight="1">
-      <c r="B150" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="C150" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="151" ht="15.75" customHeight="1">
-      <c r="B151" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="C151" s="6" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="B152" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="153" ht="15.75" customHeight="1">
+      <c r="B153" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="154" ht="15.75" customHeight="1">
+      <c r="B154" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
-      <c r="B153" s="5" t="s">
+    <row r="155" ht="15.75" customHeight="1">
+      <c r="B155" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
-      <c r="B154" s="7"/>
-      <c r="C154" s="7" t="s">
+    <row r="156" ht="15.75" customHeight="1">
+      <c r="B156" s="4"/>
+      <c r="C156" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D154" s="7" t="s">
+      <c r="D156" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E154" s="7" t="s">
+      <c r="E156" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F154" s="7" t="s">
+      <c r="F156" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G154" s="7" t="s">
+      <c r="G156" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
-      <c r="C155" s="7" t="s">
+    <row r="157" ht="15.75" customHeight="1">
+      <c r="C157" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="D155" s="7" t="s">
+      <c r="D157" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E155" s="7" t="s">
+      <c r="E157" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F155" s="7" t="s">
+      <c r="F157" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G155" s="7" t="s">
+      <c r="G157" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
-      <c r="B156" s="7" t="s">
+    <row r="158" ht="15.75" customHeight="1">
+      <c r="B158" s="4" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
-      <c r="B157" s="7"/>
-      <c r="C157" s="7" t="s">
+    <row r="159" ht="15.75" customHeight="1">
+      <c r="B159" s="4"/>
+      <c r="C159" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D157" s="7" t="s">
+      <c r="D159" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E157" s="7" t="s">
+      <c r="E159" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F157" s="7" t="s">
+      <c r="F159" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G157" s="7" t="s">
+      <c r="G159" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
-      <c r="C158" s="7" t="s">
+    <row r="160" ht="15.75" customHeight="1">
+      <c r="C160" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D158" s="7" t="s">
+      <c r="D160" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E158" s="7" t="s">
+      <c r="E160" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F158" s="7" t="s">
+      <c r="F160" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="G158" s="7" t="s">
+      <c r="G160" s="4" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
-      <c r="B159" s="7" t="s">
+    <row r="161" ht="15.75" customHeight="1">
+      <c r="B161" s="4" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
-      <c r="B160" s="7"/>
-      <c r="C160" s="7" t="s">
+    <row r="162" ht="15.75" customHeight="1">
+      <c r="B162" s="4"/>
+      <c r="C162" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D160" s="7" t="s">
+      <c r="D162" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E160" s="7" t="s">
+      <c r="E162" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F160" s="7" t="s">
+      <c r="F162" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G160" s="7" t="s">
+      <c r="G162" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
-      <c r="C161" s="7" t="s">
+    <row r="163" ht="15.75" customHeight="1">
+      <c r="C163" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="D161" s="7" t="s">
+      <c r="D163" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E161" s="7" t="s">
+      <c r="E163" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F161" s="7" t="s">
+      <c r="F163" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="G161" s="7" t="s">
+      <c r="G163" s="4" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
-      <c r="B162" s="7" t="s">
+    <row r="164" ht="15.75" customHeight="1">
+      <c r="B164" s="4" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
-      <c r="B163" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C163" s="7" t="s">
+    <row r="165" ht="15.75" customHeight="1">
+      <c r="B165" s="4"/>
+      <c r="C165" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D163" s="7" t="s">
+      <c r="D165" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E163" s="7" t="s">
+      <c r="E165" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F163" s="7" t="s">
+      <c r="F165" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G163" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="164" ht="15.75" customHeight="1">
-      <c r="C164" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="D164" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E164" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F164" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G164" s="7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="165" ht="15.75" customHeight="1">
-      <c r="B165" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="C165" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D165" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E165" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F165" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G165" s="7" t="s">
+      <c r="G165" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="C166" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D166" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D166" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E166" s="7" t="s">
+      <c r="E166" s="4" t="s">
         <v>68</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="B167" s="4" t="s">
-        <v>197</v>
+      <c r="B167" s="3" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="B168" s="7"/>
-      <c r="C168" s="7" t="s">
+      <c r="C168" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D168" s="7" t="s">
+      <c r="D168" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E168" s="7" t="s">
+      <c r="E168" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F168" s="7" t="s">
+      <c r="F168" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G168" s="7" t="s">
+      <c r="G168" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="C169" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F169" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G169" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="170" ht="15.75" customHeight="1">
+      <c r="B170" s="10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="171" ht="15.75" customHeight="1">
+      <c r="B171" s="4"/>
+      <c r="C171" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F171" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G171" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="172" ht="15.75" customHeight="1">
+      <c r="C172" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F172" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="D169" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E169" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F169" s="4" t="s">
+      <c r="G172" s="4" t="s">
         <v>199</v>
-      </c>
-      <c r="G169" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="170" ht="15.75" customHeight="1">
-      <c r="B170" s="4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="171" ht="15.75" customHeight="1">
-      <c r="B171" s="7"/>
-      <c r="C171" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D171" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E171" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F171" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G171" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="172" ht="15.75" customHeight="1">
-      <c r="C172" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="D172" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E172" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F172" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="G172" s="4" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="B173" s="4" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="B174" s="7"/>
-      <c r="C174" s="7" t="s">
+      <c r="B174" s="4"/>
+      <c r="C174" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D174" s="7" t="s">
+      <c r="D174" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E174" s="7" t="s">
+      <c r="E174" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F174" s="7" t="s">
+      <c r="F174" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G174" s="7" t="s">
+      <c r="G174" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="C175" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D175" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D175" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E175" s="7" t="s">
+      <c r="E175" s="4" t="s">
         <v>68</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="B176" s="4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="B177" s="7"/>
-      <c r="C177" s="7" t="s">
+      <c r="B177" s="4"/>
+      <c r="C177" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D177" s="7" t="s">
+      <c r="D177" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E177" s="7" t="s">
+      <c r="E177" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F177" s="7" t="s">
+      <c r="F177" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G177" s="7" t="s">
+      <c r="G177" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="C178" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="D178" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D178" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E178" s="7" t="s">
+      <c r="E178" s="4" t="s">
         <v>68</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="B179" s="4" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="B180" s="7"/>
-      <c r="C180" s="7" t="s">
+      <c r="B180" s="4"/>
+      <c r="C180" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D180" s="7" t="s">
+      <c r="D180" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E180" s="7" t="s">
+      <c r="E180" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F180" s="7" t="s">
+      <c r="F180" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G180" s="7" t="s">
+      <c r="G180" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="C181" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E181" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F181" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="G181" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="182" ht="15.75" customHeight="1">
+      <c r="B182" s="10" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="183" ht="15.75" customHeight="1">
+      <c r="B183" s="4"/>
+      <c r="C183" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E183" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F183" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G183" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="184" ht="15.75" customHeight="1">
+      <c r="B184" s="4"/>
+      <c r="C184" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F184" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="D181" s="7" t="s">
+      <c r="G184" s="10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="185" ht="15.75" customHeight="1">
+      <c r="B185" s="10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="186" ht="15.75" customHeight="1">
+      <c r="B186" s="4"/>
+      <c r="C186" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D186" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E186" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F186" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G186" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="187" ht="15.75" customHeight="1">
+      <c r="B187" s="4"/>
+      <c r="C187" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D187" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E181" s="7" t="s">
+      <c r="E187" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F181" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="G181" s="4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="B182" s="3" t="s">
+      <c r="F187" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="G187" s="10" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="188" ht="15.75" customHeight="1">
+      <c r="B188" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="189" ht="15.75" customHeight="1">
+      <c r="B189" s="4"/>
+      <c r="C189" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E189" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F189" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G189" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="190" ht="15.75" customHeight="1">
+      <c r="C190" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E190" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F190" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="G190" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="191" ht="15.75" customHeight="1">
+      <c r="B191" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="192" ht="15.75" customHeight="1">
+      <c r="B192" s="4"/>
+      <c r="C192" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E192" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F192" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G192" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="193" ht="15.75" customHeight="1">
+      <c r="C193" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E193" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F193" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="G193" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="194" ht="15.75" customHeight="1">
+      <c r="A194" s="11"/>
+    </row>
+    <row r="195" ht="15.75" customHeight="1">
+      <c r="A195" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B195" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
-      <c r="B183" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="184" ht="15.75" customHeight="1">
-      <c r="B184" s="3" t="s">
+    <row r="196" ht="15.75" customHeight="1">
+      <c r="B196" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="197" ht="15.75" customHeight="1">
+      <c r="B197" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
-      <c r="B185" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="C185" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="186" ht="15.75" customHeight="1">
-      <c r="B186" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="C186" s="6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="187" ht="15.75" customHeight="1">
-      <c r="B187" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="C187" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="188" ht="15.75" customHeight="1">
-      <c r="B188" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="C188" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1">
-      <c r="B191" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="192" ht="15.75" customHeight="1">
-      <c r="B192" s="5" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="193" ht="15.75" customHeight="1">
-      <c r="B193" s="7"/>
-      <c r="C193" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D193" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E193" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F193" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G193" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="194" ht="15.75" customHeight="1">
-      <c r="C194" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="D194" s="4" t="s">
+    <row r="198" ht="15.75" customHeight="1">
+      <c r="B198" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="E194" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F194" s="4" t="s">
+      <c r="C198" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="G194" s="4" t="s">
+    </row>
+    <row r="199" ht="15.75" customHeight="1">
+      <c r="B199" s="3" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="195" ht="15.75" customHeight="1">
-      <c r="B195" s="4" t="s">
+      <c r="C199" s="3" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
-      <c r="B196" s="7"/>
-      <c r="C196" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D196" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E196" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F196" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G196" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="197" ht="15.75" customHeight="1">
-      <c r="C197" s="4" t="s">
+    <row r="200" ht="15.75" customHeight="1">
+      <c r="B200" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D197" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E197" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="F197" s="4" t="s">
+      <c r="C200" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="G197" s="4" t="s">
+    </row>
+    <row r="201" ht="15.75" customHeight="1">
+      <c r="B201" s="3" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="198" ht="15.75" customHeight="1">
-      <c r="B198" s="4" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="199" ht="15.75" customHeight="1">
-      <c r="B199" s="7"/>
-      <c r="C199" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D199" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E199" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F199" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G199" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="200" ht="15.75" customHeight="1">
-      <c r="C200" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="D200" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E200" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F200" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="G200" s="4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="12"/>
-    </row>
-    <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="B202" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="C202" s="6" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="203" ht="15.75" customHeight="1">
-      <c r="B203" s="3"/>
-      <c r="C203" s="3"/>
-      <c r="D203" s="3"/>
-      <c r="E203" s="3"/>
-      <c r="F203" s="3"/>
-      <c r="G203" s="3"/>
-    </row>
+      <c r="C201" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
     <row r="204" ht="15.75" customHeight="1">
       <c r="B204" s="3" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="B205" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="C205" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="206" ht="15.75" customHeight="1"/>
+      <c r="B205" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="206" ht="15.75" customHeight="1">
+      <c r="B206" s="4"/>
+      <c r="C206" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D206" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E206" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F206" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G206" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="B207" s="3" t="s">
-        <v>29</v>
+      <c r="C207" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D207" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E207" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F207" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G207" s="4" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="B208" s="5" t="s">
-        <v>244</v>
+      <c r="B208" s="4" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="B209" s="7"/>
-      <c r="C209" s="7" t="s">
+      <c r="B209" s="4"/>
+      <c r="C209" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D209" s="7" t="s">
+      <c r="D209" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E209" s="7" t="s">
+      <c r="E209" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F209" s="7" t="s">
+      <c r="F209" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G209" s="7" t="s">
+      <c r="G209" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="210" ht="15.75" customHeight="1">
       <c r="C210" s="4" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D210" s="4" t="s">
         <v>68</v>
       </c>
       <c r="E210" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="F210" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="G210" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="211" ht="15.75" customHeight="1">
+      <c r="B211" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="212" ht="15.75" customHeight="1">
+      <c r="B212" s="4"/>
+      <c r="C212" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D212" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E212" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F212" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G212" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="213" ht="15.75" customHeight="1">
+      <c r="C213" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D213" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F210" s="4" t="s">
+      <c r="E213" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F213" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="G210" s="4" t="s">
+      <c r="G213" s="4" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="12"/>
-    </row>
-    <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="17" t="s">
+    <row r="214" ht="15.75" customHeight="1">
+      <c r="A214" s="7"/>
+    </row>
+    <row r="215" ht="15.75" customHeight="1">
+      <c r="A215" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="B212" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="C212" s="6" t="s">
+      <c r="B215" s="3" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="213" ht="15.75" customHeight="1">
-      <c r="B213" s="3"/>
-      <c r="C213" s="3"/>
-      <c r="D213" s="3"/>
-      <c r="E213" s="3"/>
-      <c r="F213" s="3"/>
-      <c r="G213" s="3"/>
-    </row>
-    <row r="214" ht="15.75" customHeight="1">
-      <c r="B214" s="3" t="s">
+      <c r="C215" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="216" ht="15.75" customHeight="1">
+      <c r="B216" s="3"/>
+      <c r="C216" s="3"/>
+      <c r="D216" s="3"/>
+      <c r="E216" s="3"/>
+      <c r="F216" s="3"/>
+      <c r="G216" s="3"/>
+    </row>
+    <row r="217" ht="15.75" customHeight="1">
+      <c r="B217" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
-      <c r="B215" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="C215" s="6" t="s">
+    <row r="218" ht="15.75" customHeight="1">
+      <c r="B218" s="3" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="216" ht="15.75" customHeight="1">
-      <c r="B216" s="6" t="s">
+      <c r="C218" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C216" s="6"/>
-    </row>
-    <row r="217" ht="15.75" customHeight="1">
-      <c r="B217" s="6" t="s">
+    </row>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1">
+      <c r="B220" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="221" ht="15.75" customHeight="1">
+      <c r="B221" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="C217" s="6" t="s">
+    </row>
+    <row r="222" ht="15.75" customHeight="1">
+      <c r="B222" s="4"/>
+      <c r="C222" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D222" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E222" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F222" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G222" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="223" ht="15.75" customHeight="1">
+      <c r="C223" s="4" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="218" ht="15.75" customHeight="1">
-      <c r="B218" s="6" t="s">
+      <c r="D223" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E223" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F223" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="C218" s="6">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="219" ht="15.75" customHeight="1">
-      <c r="B219" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="220" ht="15.75" customHeight="1">
-      <c r="B220" s="5" t="s">
+      <c r="G223" s="4" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="221" ht="15.75" customHeight="1">
-      <c r="B221" s="7"/>
-      <c r="C221" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D221" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E221" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F221" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G221" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="222" ht="15.75" customHeight="1">
-      <c r="C222" s="4" t="s">
+    <row r="224" ht="15.75" customHeight="1">
+      <c r="A224" s="7"/>
+    </row>
+    <row r="225" ht="15.75" customHeight="1">
+      <c r="A225" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="D222" s="4" t="s">
+      <c r="B225" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C225" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="E222" s="4" t="s">
+    </row>
+    <row r="226" ht="15.75" customHeight="1">
+      <c r="B226" s="3"/>
+      <c r="C226" s="3"/>
+      <c r="D226" s="3"/>
+      <c r="E226" s="3"/>
+      <c r="F226" s="3"/>
+      <c r="G226" s="3"/>
+    </row>
+    <row r="227" ht="15.75" customHeight="1">
+      <c r="B227" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="228" ht="15.75" customHeight="1">
+      <c r="B228" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="F222" s="4" t="s">
+      <c r="C228" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="G222" s="4" t="s">
+    </row>
+    <row r="229" ht="15.75" customHeight="1">
+      <c r="B229" s="3" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="223" ht="15.75" customHeight="1">
-      <c r="A223" s="12"/>
-    </row>
-    <row r="224" ht="15.75" customHeight="1">
-      <c r="A224" s="17" t="s">
+      <c r="C229" s="3"/>
+    </row>
+    <row r="230" ht="15.75" customHeight="1">
+      <c r="B230" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="B224" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="C224" s="6" t="s">
+      <c r="C230" s="3" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="225" ht="15.75" customHeight="1">
-      <c r="B225" s="3"/>
-      <c r="C225" s="3"/>
-      <c r="D225" s="3"/>
-      <c r="E225" s="3"/>
-      <c r="F225" s="3"/>
-      <c r="G225" s="3"/>
-    </row>
-    <row r="226" ht="15.75" customHeight="1">
-      <c r="B226" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="227" ht="15.75" customHeight="1">
-      <c r="B227" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="C227" s="6" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="228" ht="15.75" customHeight="1">
-      <c r="C228" s="6"/>
-    </row>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
     <row r="231" ht="15.75" customHeight="1">
       <c r="B231" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C231" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="232" ht="15.75" customHeight="1">
+      <c r="B232" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="232" ht="15.75" customHeight="1">
-      <c r="B232" s="5" t="s">
+    <row r="233" ht="15.75" customHeight="1">
+      <c r="B233" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="234" ht="15.75" customHeight="1">
+      <c r="B234" s="4"/>
+      <c r="C234" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D234" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E234" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F234" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G234" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="235" ht="15.75" customHeight="1">
+      <c r="C235" s="4" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="233" ht="15.75" customHeight="1">
-      <c r="B233" s="7"/>
-      <c r="C233" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D233" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E233" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F233" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G233" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="234" ht="15.75" customHeight="1">
-      <c r="C234" s="4" t="s">
+      <c r="D235" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="D234" s="4" t="s">
+      <c r="E235" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="E234" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="F234" s="4" t="s">
+      <c r="F235" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="G234" s="4" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
+      <c r="G235" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="236" ht="15.75" customHeight="1">
+      <c r="A236" s="7"/>
+    </row>
+    <row r="237" ht="15.75" customHeight="1">
+      <c r="A237" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="238" ht="15.75" customHeight="1">
+      <c r="B238" s="3"/>
+      <c r="C238" s="3"/>
+      <c r="D238" s="3"/>
+      <c r="E238" s="3"/>
+      <c r="F238" s="3"/>
+      <c r="G238" s="3"/>
+    </row>
+    <row r="239" ht="15.75" customHeight="1">
+      <c r="B239" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240" ht="15.75" customHeight="1">
+      <c r="B240" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="241" ht="15.75" customHeight="1">
+      <c r="C241" s="3"/>
+    </row>
     <row r="242" ht="15.75" customHeight="1"/>
     <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1">
+      <c r="B244" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="245" ht="15.75" customHeight="1">
+      <c r="B245" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="246" ht="15.75" customHeight="1">
+      <c r="B246" s="4"/>
+      <c r="C246" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D246" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E246" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F246" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G246" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="247" ht="15.75" customHeight="1">
+      <c r="C247" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D247" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E247" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="F247" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="G247" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="248" ht="15.75" customHeight="1">
+      <c r="A248" s="7"/>
+    </row>
+    <row r="249" ht="15.75" customHeight="1">
+      <c r="A249" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="B249" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="C249" s="14" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="250" ht="15.75" customHeight="1">
+      <c r="B250" s="3"/>
+      <c r="C250" s="3"/>
+      <c r="D250" s="3"/>
+      <c r="E250" s="3"/>
+      <c r="F250" s="3"/>
+      <c r="G250" s="3"/>
+    </row>
+    <row r="251" ht="15.75" customHeight="1">
+      <c r="B251" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="252" ht="15.75" customHeight="1">
+      <c r="B252" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C252" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="253" ht="15.75" customHeight="1">
+      <c r="B253" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="C253" s="14" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="254" ht="15.75" customHeight="1">
+      <c r="B254" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="C254" s="15" t="s">
+        <v>285</v>
+      </c>
+    </row>
     <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1">
+      <c r="B256" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="257" ht="15.75" customHeight="1">
+      <c r="B257" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="258" ht="15.75" customHeight="1">
+      <c r="B258" s="4"/>
+      <c r="C258" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D258" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E258" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F258" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G258" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="259" ht="15.75" customHeight="1">
+      <c r="C259" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="D259" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E259" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F259" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="G259" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="260" ht="15.75" customHeight="1">
+      <c r="B260" s="16" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="261" ht="15.75" customHeight="1">
+      <c r="B261" s="17"/>
+      <c r="C261" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D261" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E261" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F261" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G261" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="262" ht="15.75" customHeight="1">
+      <c r="C262" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="D262" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="E262" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="F262" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="G262" s="18" t="s">
+        <v>294</v>
+      </c>
+    </row>
     <row r="263" ht="15.75" customHeight="1"/>
     <row r="264" ht="15.75" customHeight="1"/>
     <row r="265" ht="15.75" customHeight="1"/>
@@ -4381,8 +4701,21 @@
     <row r="1024" ht="15.75" customHeight="1"/>
     <row r="1025" ht="15.75" customHeight="1"/>
     <row r="1026" ht="15.75" customHeight="1"/>
+    <row r="1027" ht="15.75" customHeight="1"/>
+    <row r="1028" ht="15.75" customHeight="1"/>
+    <row r="1029" ht="15.75" customHeight="1"/>
+    <row r="1030" ht="15.75" customHeight="1"/>
+    <row r="1031" ht="15.75" customHeight="1"/>
+    <row r="1032" ht="15.75" customHeight="1"/>
+    <row r="1033" ht="15.75" customHeight="1"/>
+    <row r="1034" ht="15.75" customHeight="1"/>
+    <row r="1035" ht="15.75" customHeight="1"/>
+    <row r="1036" ht="15.75" customHeight="1"/>
+    <row r="1037" ht="15.75" customHeight="1"/>
+    <row r="1038" ht="15.75" customHeight="1"/>
+    <row r="1039" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="123">
+  <mergeCells count="138">
     <mergeCell ref="A40:G40"/>
     <mergeCell ref="B41:G41"/>
     <mergeCell ref="B42:G42"/>
@@ -4397,26 +4730,33 @@
     <mergeCell ref="B63:G63"/>
     <mergeCell ref="B70:G70"/>
     <mergeCell ref="B71:G71"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="B97:G97"/>
-    <mergeCell ref="B91:G91"/>
     <mergeCell ref="B92:B93"/>
+    <mergeCell ref="B94:G94"/>
     <mergeCell ref="B74:G74"/>
     <mergeCell ref="B77:G77"/>
     <mergeCell ref="B81:G81"/>
     <mergeCell ref="B82:G82"/>
     <mergeCell ref="B83:G83"/>
     <mergeCell ref="B90:G90"/>
-    <mergeCell ref="B94:G94"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="B118:G118"/>
-    <mergeCell ref="B106:G106"/>
-    <mergeCell ref="B107:G107"/>
-    <mergeCell ref="B108:G108"/>
-    <mergeCell ref="B111:G111"/>
-    <mergeCell ref="B112:G112"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="B115:G115"/>
+    <mergeCell ref="B91:G91"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="B97:G97"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="B100:G100"/>
+    <mergeCell ref="B103:G103"/>
+    <mergeCell ref="B129:G129"/>
+    <mergeCell ref="B130:G130"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="B119:G119"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="B122:G122"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="B125:G125"/>
+    <mergeCell ref="B126:B127"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="B23:B24"/>
@@ -4436,12 +4776,9 @@
     <mergeCell ref="B34:G34"/>
     <mergeCell ref="B37:G37"/>
     <mergeCell ref="A61:A79"/>
-    <mergeCell ref="A106:A124"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="A127:A145"/>
     <mergeCell ref="A81:A102"/>
+    <mergeCell ref="A107:A125"/>
+    <mergeCell ref="A129:A147"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="A41:A59"/>
@@ -4449,63 +4786,74 @@
     <mergeCell ref="B55:B56"/>
     <mergeCell ref="B58:B59"/>
     <mergeCell ref="B78:B79"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="B100:G100"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="B103:G103"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="B208:G208"/>
-    <mergeCell ref="B207:G207"/>
-    <mergeCell ref="B209:B210"/>
-    <mergeCell ref="B221:B222"/>
-    <mergeCell ref="B226:G226"/>
-    <mergeCell ref="B231:G231"/>
-    <mergeCell ref="B232:G232"/>
-    <mergeCell ref="B233:B234"/>
-    <mergeCell ref="B191:G191"/>
-    <mergeCell ref="B192:G192"/>
-    <mergeCell ref="B195:G195"/>
-    <mergeCell ref="B198:G198"/>
-    <mergeCell ref="B214:G214"/>
-    <mergeCell ref="B219:G219"/>
-    <mergeCell ref="B220:G220"/>
-    <mergeCell ref="B121:G121"/>
-    <mergeCell ref="B124:G124"/>
-    <mergeCell ref="B127:G127"/>
-    <mergeCell ref="B128:G128"/>
-    <mergeCell ref="B129:G129"/>
-    <mergeCell ref="B152:G152"/>
-    <mergeCell ref="B153:G153"/>
-    <mergeCell ref="B154:B155"/>
-    <mergeCell ref="B156:G156"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="B159:G159"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="B162:G162"/>
-    <mergeCell ref="B167:G167"/>
-    <mergeCell ref="B170:G170"/>
-    <mergeCell ref="B173:G173"/>
-    <mergeCell ref="B176:G176"/>
-    <mergeCell ref="B179:G179"/>
-    <mergeCell ref="B182:G182"/>
-    <mergeCell ref="B183:G183"/>
-    <mergeCell ref="B184:G184"/>
-    <mergeCell ref="B193:B194"/>
-    <mergeCell ref="B196:B197"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="B168:B169"/>
-    <mergeCell ref="B171:B172"/>
+    <mergeCell ref="B107:G107"/>
+    <mergeCell ref="A106:G106"/>
+    <mergeCell ref="B108:G108"/>
+    <mergeCell ref="B109:G109"/>
+    <mergeCell ref="B112:G112"/>
+    <mergeCell ref="B113:G113"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="B116:G116"/>
+    <mergeCell ref="A128:G128"/>
+    <mergeCell ref="B192:B193"/>
+    <mergeCell ref="B189:B190"/>
     <mergeCell ref="B174:B175"/>
     <mergeCell ref="B177:B178"/>
     <mergeCell ref="B180:B181"/>
-    <mergeCell ref="A182:A200"/>
-    <mergeCell ref="B199:B200"/>
-    <mergeCell ref="A201:G201"/>
+    <mergeCell ref="A195:A213"/>
+    <mergeCell ref="B206:B207"/>
+    <mergeCell ref="B209:B210"/>
+    <mergeCell ref="B212:B213"/>
+    <mergeCell ref="B131:G131"/>
+    <mergeCell ref="B154:G154"/>
+    <mergeCell ref="B155:G155"/>
+    <mergeCell ref="B156:B157"/>
+    <mergeCell ref="B158:G158"/>
+    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="B161:G161"/>
+    <mergeCell ref="B162:B163"/>
+    <mergeCell ref="B164:G164"/>
+    <mergeCell ref="B165:B166"/>
+    <mergeCell ref="B170:G170"/>
+    <mergeCell ref="B171:B172"/>
+    <mergeCell ref="B173:G173"/>
+    <mergeCell ref="B176:G176"/>
+    <mergeCell ref="B167:G167"/>
+    <mergeCell ref="B208:G208"/>
+    <mergeCell ref="B211:G211"/>
+    <mergeCell ref="A214:G214"/>
+    <mergeCell ref="B217:G217"/>
+    <mergeCell ref="B220:G220"/>
+    <mergeCell ref="B221:G221"/>
+    <mergeCell ref="B222:B223"/>
+    <mergeCell ref="A224:G224"/>
+    <mergeCell ref="B227:G227"/>
+    <mergeCell ref="B232:G232"/>
+    <mergeCell ref="B233:G233"/>
+    <mergeCell ref="B234:B235"/>
+    <mergeCell ref="A236:G236"/>
+    <mergeCell ref="B239:G239"/>
+    <mergeCell ref="B179:G179"/>
+    <mergeCell ref="B182:G182"/>
+    <mergeCell ref="B185:G185"/>
+    <mergeCell ref="B188:G188"/>
+    <mergeCell ref="B191:G191"/>
+    <mergeCell ref="B195:G195"/>
+    <mergeCell ref="B196:G196"/>
+    <mergeCell ref="B197:G197"/>
     <mergeCell ref="B204:G204"/>
-    <mergeCell ref="A211:G211"/>
-    <mergeCell ref="A223:G223"/>
+    <mergeCell ref="B205:G205"/>
+    <mergeCell ref="A194:G194"/>
+    <mergeCell ref="B258:B259"/>
+    <mergeCell ref="B260:G260"/>
+    <mergeCell ref="B261:B262"/>
+    <mergeCell ref="B244:G244"/>
+    <mergeCell ref="B245:G245"/>
+    <mergeCell ref="B246:B247"/>
+    <mergeCell ref="B256:G256"/>
+    <mergeCell ref="B257:G257"/>
+    <mergeCell ref="A248:G248"/>
+    <mergeCell ref="B251:G251"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
